--- a/feature_descriptions.xlsx
+++ b/feature_descriptions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t xml:space="preserve">feature</t>
   </si>
@@ -31,150 +31,36 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">i={1,…,n}</t>
+    <t xml:space="preserve">score</t>
   </si>
   <si>
     <t xml:space="preserve">Learning Outcomes</t>
   </si>
   <si>
-    <t xml:space="preserve">Boolean if student answered multiple choice question i correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normalized score for entire assignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor_MAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standardized score test for student population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean if data was lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_quality_is_good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean if data is good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_quality_reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reason for why the data is not good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_fix_count_quiz</t>
+    <t xml:space="preserve">Score in Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_duration</t>
   </si>
   <si>
     <t xml:space="preserve">Engagement &amp; effort</t>
   </si>
   <si>
-    <t xml:space="preserve">Total number of fixations on the quiz area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_fix_count_pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of fixations on the passage area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_dwell_time_pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summation of fixations durations for fixations that fall within a PDF page AOI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total_duration</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total duration of the sessions</t>
   </si>
   <si>
-    <t xml:space="preserve">total_fix_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of fixations for the entire session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coldread_coverage_X_%</t>
+    <t xml:space="preserve">coverage_X_%</t>
   </si>
   <si>
     <t xml:space="preserve">The coverage of X (word, line, paragraph, title by fixation in percentage during the coldread section</t>
   </si>
   <si>
-    <t xml:space="preserve">coldread_saccade_vertical_next_target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading Behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of forward saccades that either stay on the same line or move one line down % of all Fi, where L(Fi)-L(Fi+1)={0,-1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coldread_saccade_vertical_later_%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of forward saccades that either say on the same line or move down any number of lines % of all Fi, where L(Fi)≤L(Fi+1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coldread_saccade_horizontal_later_%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of forward saccades within a line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coldread_saccade_regression_rate_%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of backward saccade of any length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coldread_saccade_line_regression_rate_%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% of backward saccade within a line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coldread_fix_dispersion_mean_cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The average fixation dispersion computed for each time-window (L=10 seconds) fixation data. Within each window, the dispersion is computed by calculating the centroid from a set of (x,y) fixations with a length of n:&amp;#10;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coldread_fix_dispersion_std_cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instead of computing the average fixation dispersion across the computed dispersion per-window, this is the standard deviation on the set of dispersion values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coldread_stopwatch_wpm</t>
+    <t xml:space="preserve">coldread_gaze_wpm_median</t>
   </si>
   <si>
     <t xml:space="preserve">Reading Ability</t>
   </si>
   <si>
-    <t xml:space="preserve">The global WPM for the coldread section. This is simply the word count of the entire passage divided by the duration of the coldread&amp;#10;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coldread_gaze_wpm_median</t>
-  </si>
-  <si>
     <t xml:space="preserve">Divided the coldread into windows of T=10 seconds. For each window, the max and min word ID and fixation timestamps are used to compute the WPM. Time window WPMs are filtered by removing any negative WPM or WPM &gt; 500. Then we compute the median and std.</t>
   </si>
   <si>
@@ -184,10 +70,25 @@
     <t xml:space="preserve">As described on the row above.</t>
   </si>
   <si>
-    <t xml:space="preserve">qa_*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any metric that has the qa prefix means the metric computed for the question-answering segment of the assignment.</t>
+    <t xml:space="preserve">qa_fix_dipspersion_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fixation dispersion in cm within the question-answering section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qa_dwell_time_quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of time the student spent looking at the quiz during the question-answering section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of time the student spent looking at the passage PDF during the question-answering section</t>
   </si>
 </sst>
 </file>
@@ -268,11 +169,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,10 +365,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -509,271 +410,88 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/feature_descriptions.xlsx
+++ b/feature_descriptions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t xml:space="preserve">feature</t>
   </si>
@@ -40,19 +40,13 @@
     <t xml:space="preserve">Score in Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">total_duration</t>
+    <t xml:space="preserve">coverage_X_%</t>
   </si>
   <si>
     <t xml:space="preserve">Engagement &amp; effort</t>
   </si>
   <si>
-    <t xml:space="preserve">Total duration of the sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coverage_X_%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The coverage of X (word, line, paragraph, title by fixation in percentage during the coldread section</t>
+    <t xml:space="preserve">The coverage of X (word, line, paragraph, title) by fixation in percentage during the coldread section</t>
   </si>
   <si>
     <t xml:space="preserve">coldread_gaze_wpm_median</t>
@@ -64,12 +58,6 @@
     <t xml:space="preserve">Divided the coldread into windows of T=10 seconds. For each window, the max and min word ID and fixation timestamps are used to compute the WPM. Time window WPMs are filtered by removing any negative WPM or WPM &gt; 500. Then we compute the median and std.</t>
   </si>
   <si>
-    <t xml:space="preserve">coldread_gaze_wpm_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described on the row above.</t>
-  </si>
-  <si>
     <t xml:space="preserve">qa_fix_dipspersion_mean</t>
   </si>
   <si>
@@ -89,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">The amount of time the student spent looking at the passage PDF during the question-answering section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qa_saccade_regression_rate_%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of saccades that were regression within the text.</t>
   </si>
 </sst>
 </file>
@@ -367,8 +361,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,57 +400,55 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -467,23 +459,14 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
